--- a/Code/Results/Cases/Case_1_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.60810148824213</v>
+        <v>15.81542716379291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.872777583294042</v>
+        <v>4.608468162201127</v>
       </c>
       <c r="E2">
-        <v>12.87143730643166</v>
+        <v>20.52734289458135</v>
       </c>
       <c r="F2">
-        <v>16.52794687128212</v>
+        <v>22.23093670878155</v>
       </c>
       <c r="G2">
-        <v>20.01807771853531</v>
+        <v>25.22786576219513</v>
       </c>
       <c r="H2">
-        <v>8.156574726468804</v>
+        <v>13.41310485122486</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.29042873251952</v>
+        <v>10.94344334586449</v>
       </c>
       <c r="L2">
-        <v>5.512363972787027</v>
+        <v>8.047874645982276</v>
       </c>
       <c r="M2">
-        <v>9.782061337461837</v>
+        <v>14.68701805929012</v>
       </c>
       <c r="N2">
-        <v>13.26982763925376</v>
+        <v>20.14463931274576</v>
       </c>
       <c r="O2">
-        <v>13.10133758636427</v>
+        <v>19.94254533248236</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.07885915148633</v>
+        <v>15.73861400343886</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.66841279124715</v>
+        <v>4.530428872322533</v>
       </c>
       <c r="E3">
-        <v>13.03658484605829</v>
+        <v>20.59599441593353</v>
       </c>
       <c r="F3">
-        <v>16.15430265747999</v>
+        <v>22.23415789061444</v>
       </c>
       <c r="G3">
-        <v>19.53205732806779</v>
+        <v>25.22703743072563</v>
       </c>
       <c r="H3">
-        <v>8.17981948228946</v>
+        <v>13.44830304674604</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.73483555986026</v>
+        <v>10.71212393008241</v>
       </c>
       <c r="L3">
-        <v>5.331129118614996</v>
+        <v>8.02941573471257</v>
       </c>
       <c r="M3">
-        <v>9.523570093694998</v>
+        <v>14.66991148258432</v>
       </c>
       <c r="N3">
-        <v>13.45199947077488</v>
+        <v>20.2023779973051</v>
       </c>
       <c r="O3">
-        <v>13.03049376788118</v>
+        <v>19.99014779165025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74718465812567</v>
+        <v>15.69422573477628</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.537624098622964</v>
+        <v>4.481106919419823</v>
       </c>
       <c r="E4">
-        <v>13.14249503978201</v>
+        <v>20.64057310338942</v>
       </c>
       <c r="F4">
-        <v>15.93389555432473</v>
+        <v>22.24170720810843</v>
       </c>
       <c r="G4">
-        <v>19.24776103286122</v>
+        <v>25.23426941089593</v>
       </c>
       <c r="H4">
-        <v>8.198659162663734</v>
+        <v>13.47185678207637</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.37989967200663</v>
+        <v>10.56599773511888</v>
       </c>
       <c r="L4">
-        <v>5.218542720558479</v>
+        <v>8.019123767476959</v>
       </c>
       <c r="M4">
-        <v>9.364949185019587</v>
+        <v>14.66142799142747</v>
       </c>
       <c r="N4">
-        <v>13.56683771148688</v>
+        <v>20.23957544135426</v>
       </c>
       <c r="O4">
-        <v>12.99674550144877</v>
+        <v>20.02334745643375</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.61054350437553</v>
+        <v>15.67685017611077</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.48303267132174</v>
+        <v>4.460666973944446</v>
       </c>
       <c r="E5">
-        <v>13.18678618780325</v>
+        <v>20.65935080185002</v>
       </c>
       <c r="F5">
-        <v>15.84643236579686</v>
+        <v>22.24618547218956</v>
       </c>
       <c r="G5">
-        <v>19.13556029018388</v>
+        <v>25.23916239248683</v>
       </c>
       <c r="H5">
-        <v>8.207452089958139</v>
+        <v>13.48194354493926</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.23191071098322</v>
+        <v>10.50546880680027</v>
       </c>
       <c r="L5">
-        <v>5.172401620642266</v>
+        <v>8.015194624801723</v>
       </c>
       <c r="M5">
-        <v>9.300424079590544</v>
+        <v>14.65848219439608</v>
       </c>
       <c r="N5">
-        <v>13.61439885274088</v>
+        <v>20.25517386533287</v>
       </c>
       <c r="O5">
-        <v>12.98538488102361</v>
+        <v>20.03787406376721</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.58777144667222</v>
+        <v>15.67400846693352</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.473890966282806</v>
+        <v>4.457252728146177</v>
       </c>
       <c r="E6">
-        <v>13.19420901742014</v>
+        <v>20.66250579975698</v>
       </c>
       <c r="F6">
-        <v>15.83205381451942</v>
+        <v>22.24701376181039</v>
       </c>
       <c r="G6">
-        <v>19.11715271369891</v>
+        <v>25.24009234995719</v>
       </c>
       <c r="H6">
-        <v>8.208978575701579</v>
+        <v>13.48364794712746</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.20713881751787</v>
+        <v>10.49536022297135</v>
       </c>
       <c r="L6">
-        <v>5.164726221499313</v>
+        <v>8.014558275911916</v>
       </c>
       <c r="M6">
-        <v>9.289719347133467</v>
+        <v>14.65802402057967</v>
       </c>
       <c r="N6">
-        <v>13.62234284655851</v>
+        <v>20.25779059200924</v>
       </c>
       <c r="O6">
-        <v>12.98364110498796</v>
+        <v>20.04034640278835</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74534757185735</v>
+        <v>15.69398849559682</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.536893040436678</v>
+        <v>4.480832622251348</v>
       </c>
       <c r="E7">
-        <v>13.14308778479686</v>
+        <v>20.64082386810882</v>
       </c>
       <c r="F7">
-        <v>15.932706350403</v>
+        <v>22.24176192697159</v>
       </c>
       <c r="G7">
-        <v>19.24623294280914</v>
+        <v>25.23432752235889</v>
       </c>
       <c r="H7">
-        <v>8.198773273221597</v>
+        <v>13.47199083792766</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.37791723167162</v>
+        <v>10.565185328194</v>
       </c>
       <c r="L7">
-        <v>5.217921410263378</v>
+        <v>8.019069701312953</v>
       </c>
       <c r="M7">
-        <v>9.364078392197172</v>
+        <v>14.66138618893934</v>
       </c>
       <c r="N7">
-        <v>13.56747602845412</v>
+        <v>20.23978402334837</v>
       </c>
       <c r="O7">
-        <v>12.99658268474861</v>
+        <v>20.02353933030648</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.42713029398719</v>
+        <v>15.78837532770557</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.803436812273986</v>
+        <v>4.581859304261196</v>
       </c>
       <c r="E8">
-        <v>12.92744301883588</v>
+        <v>20.55051118193479</v>
       </c>
       <c r="F8">
-        <v>16.39729890910206</v>
+        <v>22.23089176738666</v>
       </c>
       <c r="G8">
-        <v>19.84763141802027</v>
+        <v>25.22597372107731</v>
       </c>
       <c r="H8">
-        <v>8.163621660954865</v>
+        <v>13.42483822203654</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.10179088176548</v>
+        <v>10.86456257716164</v>
       </c>
       <c r="L8">
-        <v>5.450184471138138</v>
+        <v>8.041295582017698</v>
       </c>
       <c r="M8">
-        <v>9.692967318141173</v>
+        <v>14.68070253820644</v>
       </c>
       <c r="N8">
-        <v>13.33202928719734</v>
+        <v>20.16418602668024</v>
       </c>
       <c r="O8">
-        <v>13.07485246986986</v>
+        <v>19.95813367756529</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.70289160879137</v>
+        <v>15.99478238763502</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.282523845333975</v>
+        <v>4.768297147498711</v>
       </c>
       <c r="E9">
-        <v>12.5404542385017</v>
+        <v>20.39259714875124</v>
       </c>
       <c r="F9">
-        <v>17.37573174167472</v>
+        <v>22.25371040317478</v>
       </c>
       <c r="G9">
-        <v>21.13405087973567</v>
+        <v>25.27096753071489</v>
       </c>
       <c r="H9">
-        <v>8.132421836944266</v>
+        <v>13.34777476731676</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.40741935363619</v>
+        <v>11.41716057749484</v>
       </c>
       <c r="L9">
-        <v>5.892584586462577</v>
+        <v>8.093011474396834</v>
       </c>
       <c r="M9">
-        <v>10.33489156471142</v>
+        <v>14.73445329292732</v>
       </c>
       <c r="N9">
-        <v>12.89336934489336</v>
+        <v>20.02973399332963</v>
       </c>
       <c r="O9">
-        <v>13.3081381997914</v>
+        <v>19.8614352015176</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.593929151667</v>
+        <v>16.15842291479923</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.606308377823151</v>
+        <v>4.897497997597998</v>
       </c>
       <c r="E10">
-        <v>12.27821922404769</v>
+        <v>20.28818722383339</v>
       </c>
       <c r="F10">
-        <v>18.12998241878773</v>
+        <v>22.2972325827756</v>
       </c>
       <c r="G10">
-        <v>22.13742295746489</v>
+        <v>25.34128563556391</v>
       </c>
       <c r="H10">
-        <v>8.134575288225617</v>
+        <v>13.30053839218741</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.29247514272633</v>
+        <v>11.79967568671665</v>
       </c>
       <c r="L10">
-        <v>6.302375385501365</v>
+        <v>8.135771765637042</v>
       </c>
       <c r="M10">
-        <v>10.79998471028324</v>
+        <v>14.78339601447744</v>
       </c>
       <c r="N10">
-        <v>12.58422881932905</v>
+        <v>19.93928332312156</v>
       </c>
       <c r="O10">
-        <v>13.53116968261348</v>
+        <v>19.80969186497671</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.98778259532095</v>
+        <v>16.23524306830631</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.747233333854571</v>
+        <v>4.954459333498538</v>
       </c>
       <c r="E11">
-        <v>12.16378270352873</v>
+        <v>20.24319064936543</v>
       </c>
       <c r="F11">
-        <v>18.4796114739545</v>
+        <v>22.32279197865148</v>
       </c>
       <c r="G11">
-        <v>22.60502050799655</v>
+        <v>25.38129947817476</v>
       </c>
       <c r="H11">
-        <v>8.141451554011756</v>
+        <v>13.28108474154479</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.67827312127354</v>
+        <v>11.96813008221014</v>
       </c>
       <c r="L11">
-        <v>6.492278698861137</v>
+        <v>8.15621456805774</v>
       </c>
       <c r="M11">
-        <v>11.00927596233561</v>
+        <v>14.80766080235702</v>
       </c>
       <c r="N11">
-        <v>12.44624007686296</v>
+        <v>19.8999272662915</v>
       </c>
       <c r="O11">
-        <v>13.64438224906355</v>
+        <v>19.79035315476687</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.13517741600598</v>
+        <v>16.26465480452833</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.799666603933668</v>
+        <v>4.975758553729015</v>
       </c>
       <c r="E12">
-        <v>12.12115430338575</v>
+        <v>20.22650973133192</v>
       </c>
       <c r="F12">
-        <v>18.612850052883</v>
+        <v>22.33329331650925</v>
       </c>
       <c r="G12">
-        <v>22.78357149105923</v>
+        <v>25.39759748996058</v>
       </c>
       <c r="H12">
-        <v>8.144940750769775</v>
+        <v>13.27401054355173</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.8219007777242</v>
+        <v>12.03108571509962</v>
       </c>
       <c r="L12">
-        <v>6.562861503444275</v>
+        <v>8.164094163776937</v>
       </c>
       <c r="M12">
-        <v>11.08813657688571</v>
+        <v>14.81713197935756</v>
       </c>
       <c r="N12">
-        <v>12.39434982539874</v>
+        <v>19.88528037647432</v>
       </c>
       <c r="O12">
-        <v>13.68897999897703</v>
+        <v>19.78363446450011</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.1035124580836</v>
+        <v>16.258306489225</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.788415837186348</v>
+        <v>4.971183584135576</v>
       </c>
       <c r="E13">
-        <v>12.13030353935453</v>
+        <v>20.2300863484498</v>
       </c>
       <c r="F13">
-        <v>18.58411875770478</v>
+        <v>22.33099518551005</v>
       </c>
       <c r="G13">
-        <v>22.745053292501</v>
+        <v>25.39403662098952</v>
       </c>
       <c r="H13">
-        <v>8.144149318476758</v>
+        <v>13.2755210919329</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.79107829604399</v>
+        <v>12.01756474315606</v>
       </c>
       <c r="L13">
-        <v>6.547719381822242</v>
+        <v>8.162391066354846</v>
       </c>
       <c r="M13">
-        <v>11.07117099996572</v>
+        <v>14.81507970488838</v>
       </c>
       <c r="N13">
-        <v>12.40550944294398</v>
+        <v>19.88842345983922</v>
       </c>
       <c r="O13">
-        <v>13.6792977529136</v>
+        <v>19.7850545642271</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.99994440433713</v>
+        <v>16.23765646331318</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.751565810872859</v>
+        <v>4.956217116217954</v>
       </c>
       <c r="E14">
-        <v>12.160261434503</v>
+        <v>20.24181112593924</v>
       </c>
       <c r="F14">
-        <v>18.49055674755136</v>
+        <v>22.32363948176456</v>
       </c>
       <c r="G14">
-        <v>22.61968097642537</v>
+        <v>25.38261741937048</v>
       </c>
       <c r="H14">
-        <v>8.141720654730152</v>
+        <v>13.28049688179175</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.69013910451851</v>
+        <v>11.97332639754741</v>
       </c>
       <c r="L14">
-        <v>6.498112241173275</v>
+        <v>8.156860078694308</v>
       </c>
       <c r="M14">
-        <v>11.01577210810387</v>
+        <v>14.80843436725993</v>
       </c>
       <c r="N14">
-        <v>12.44196385542893</v>
+        <v>19.89871712536524</v>
       </c>
       <c r="O14">
-        <v>13.64801653670705</v>
+        <v>19.78978828725752</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.93627561988761</v>
+        <v>16.22504899174537</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.728872305710215</v>
+        <v>4.947014166230991</v>
       </c>
       <c r="E15">
-        <v>12.17870374429627</v>
+        <v>20.24903951790016</v>
       </c>
       <c r="F15">
-        <v>18.43335420002956</v>
+        <v>22.3192408313631</v>
       </c>
       <c r="G15">
-        <v>22.54307631009038</v>
+        <v>25.37577174563057</v>
       </c>
       <c r="H15">
-        <v>8.140349433476811</v>
+        <v>13.28358278360174</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.62798860767111</v>
+        <v>11.94611945662725</v>
       </c>
       <c r="L15">
-        <v>6.467553253645637</v>
+        <v>8.153490080627272</v>
       </c>
       <c r="M15">
-        <v>10.98178562498367</v>
+        <v>14.80440055874969</v>
       </c>
       <c r="N15">
-        <v>12.46434001569449</v>
+        <v>19.90505565154118</v>
       </c>
       <c r="O15">
-        <v>13.62908174597299</v>
+        <v>19.79276656123776</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.56795007600221</v>
+        <v>16.15344867132837</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.596969007766091</v>
+        <v>4.893738082762678</v>
       </c>
       <c r="E16">
-        <v>12.28579627733093</v>
+        <v>20.29117806037413</v>
       </c>
       <c r="F16">
-        <v>18.107256167668</v>
+        <v>22.29567766031976</v>
       </c>
       <c r="G16">
-        <v>22.10707822713883</v>
+        <v>25.33883145027952</v>
       </c>
       <c r="H16">
-        <v>8.134247753706385</v>
+        <v>13.3018506660999</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.26691963534559</v>
+        <v>11.78855191977279</v>
       </c>
       <c r="L16">
-        <v>6.289778832987179</v>
+        <v>8.134455369827776</v>
       </c>
       <c r="M16">
-        <v>10.78625538299794</v>
+        <v>14.78185008354636</v>
       </c>
       <c r="N16">
-        <v>12.59329843874656</v>
+        <v>19.94189127035013</v>
       </c>
       <c r="O16">
-        <v>13.52401071360607</v>
+        <v>19.81104025420163</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.33897792425293</v>
+        <v>16.11011914473951</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.514407229329931</v>
+        <v>4.860583232538133</v>
       </c>
       <c r="E17">
-        <v>12.35274294460184</v>
+        <v>20.31766815382219</v>
       </c>
       <c r="F17">
-        <v>17.9088048255351</v>
+        <v>22.28269404887292</v>
       </c>
       <c r="G17">
-        <v>21.84237577049283</v>
+        <v>25.31821987191208</v>
       </c>
       <c r="H17">
-        <v>8.132041366727524</v>
+        <v>13.31357843864106</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.04107098983856</v>
+        <v>11.69044057095779</v>
       </c>
       <c r="L17">
-        <v>6.178354741397187</v>
+        <v>8.123029094493086</v>
       </c>
       <c r="M17">
-        <v>10.66567089349376</v>
+        <v>14.76852496722384</v>
       </c>
       <c r="N17">
-        <v>12.67307497889686</v>
+        <v>19.96494653476234</v>
       </c>
       <c r="O17">
-        <v>13.46259093010674</v>
+        <v>19.82332665030938</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.20620292634026</v>
+        <v>16.08542235799209</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.466321410944703</v>
+        <v>4.841343378127913</v>
       </c>
       <c r="E18">
-        <v>12.39170535810717</v>
+        <v>20.33313993928507</v>
       </c>
       <c r="F18">
-        <v>17.79527962083915</v>
+        <v>22.27576887505314</v>
       </c>
       <c r="G18">
-        <v>21.69118315473276</v>
+        <v>25.30712067277008</v>
       </c>
       <c r="H18">
-        <v>8.131325081852793</v>
+        <v>13.32051543696397</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.90958791542834</v>
+        <v>11.6334887427173</v>
       </c>
       <c r="L18">
-        <v>6.113398662697887</v>
+        <v>8.116550532670919</v>
       </c>
       <c r="M18">
-        <v>10.59610258577406</v>
+        <v>14.76104932704552</v>
       </c>
       <c r="N18">
-        <v>12.71920993638785</v>
+        <v>19.9783758973934</v>
       </c>
       <c r="O18">
-        <v>13.42836840539229</v>
+        <v>19.8307887241352</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.16106600387474</v>
+        <v>16.07709974727264</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.449938150356384</v>
+        <v>4.834800204540621</v>
       </c>
       <c r="E19">
-        <v>12.40497553840158</v>
+        <v>20.33841888408605</v>
       </c>
       <c r="F19">
-        <v>17.7569512184571</v>
+        <v>22.27351749567746</v>
       </c>
       <c r="G19">
-        <v>21.64017738125603</v>
+        <v>25.30349275547445</v>
       </c>
       <c r="H19">
-        <v>8.131176363709082</v>
+        <v>13.32289707646883</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.86480009399664</v>
+        <v>11.61411752459931</v>
       </c>
       <c r="L19">
-        <v>6.091256758189531</v>
+        <v>8.114373190415341</v>
       </c>
       <c r="M19">
-        <v>10.57251375935546</v>
+        <v>14.75855074785119</v>
       </c>
       <c r="N19">
-        <v>12.73487380699919</v>
+        <v>19.98295183597097</v>
       </c>
       <c r="O19">
-        <v>13.41696976554828</v>
+        <v>19.83338312078961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.36346455288883</v>
+        <v>16.11470848535659</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.523258140847807</v>
+        <v>4.864130298987187</v>
       </c>
       <c r="E20">
-        <v>12.34556906210113</v>
+        <v>20.31482388545285</v>
       </c>
       <c r="F20">
-        <v>17.92986698210137</v>
+        <v>22.28402005320432</v>
       </c>
       <c r="G20">
-        <v>21.87044529368489</v>
+        <v>25.32033581886202</v>
       </c>
       <c r="H20">
-        <v>8.13221876068947</v>
+        <v>13.31231017879234</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.06527695651313</v>
+        <v>11.70093885784482</v>
       </c>
       <c r="L20">
-        <v>6.190305886541996</v>
+        <v>8.124235790574161</v>
       </c>
       <c r="M20">
-        <v>10.67852968093114</v>
+        <v>14.76992396344655</v>
       </c>
       <c r="N20">
-        <v>12.66455691587701</v>
+        <v>19.96247482240301</v>
       </c>
       <c r="O20">
-        <v>13.46901458076925</v>
+        <v>19.82197782946815</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.0304130093395</v>
+        <v>16.24371331409371</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.762414964684064</v>
+        <v>4.960620557721969</v>
       </c>
       <c r="E21">
-        <v>12.15144283667101</v>
+        <v>20.23835755961666</v>
       </c>
       <c r="F21">
-        <v>18.51801606398456</v>
+        <v>22.32577775777756</v>
       </c>
       <c r="G21">
-        <v>22.65646658002898</v>
+        <v>25.38594049890498</v>
       </c>
       <c r="H21">
-        <v>8.142409686404713</v>
+        <v>13.27902743457735</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.71985463462118</v>
+        <v>11.98634318854244</v>
       </c>
       <c r="L21">
-        <v>6.512719153315006</v>
+        <v>8.158480942868763</v>
       </c>
       <c r="M21">
-        <v>11.03205527086442</v>
+        <v>14.81037863497042</v>
       </c>
       <c r="N21">
-        <v>12.43124659253028</v>
+        <v>19.89568667621123</v>
       </c>
       <c r="O21">
-        <v>13.65715746105365</v>
+        <v>19.78838146965519</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.45607491410205</v>
+        <v>16.32989016902734</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.913280266750186</v>
+        <v>5.022099822845825</v>
       </c>
       <c r="E22">
-        <v>12.02869134253</v>
+        <v>20.19047034812551</v>
       </c>
       <c r="F22">
-        <v>18.90727196051547</v>
+        <v>22.35785991652175</v>
       </c>
       <c r="G22">
-        <v>23.17876460452282</v>
+        <v>25.43548953600788</v>
       </c>
       <c r="H22">
-        <v>8.154247746547767</v>
+        <v>13.2589799747754</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.13327233102541</v>
+        <v>12.16799329278732</v>
       </c>
       <c r="L22">
-        <v>6.715686467314004</v>
+        <v>8.181666508785773</v>
       </c>
       <c r="M22">
-        <v>11.26078582260589</v>
+        <v>14.83846296245853</v>
       </c>
       <c r="N22">
-        <v>12.2808729931733</v>
+        <v>19.85353074210791</v>
       </c>
       <c r="O22">
-        <v>13.79019749976249</v>
+        <v>19.76994768470672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.22985478359688</v>
+        <v>16.28373224114937</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.833262752252591</v>
+        <v>4.989435183516601</v>
       </c>
       <c r="E23">
-        <v>12.09382600116733</v>
+        <v>20.21583799588141</v>
       </c>
       <c r="F23">
-        <v>18.69910323441837</v>
+        <v>22.34030085304559</v>
       </c>
       <c r="G23">
-        <v>22.8992567056201</v>
+        <v>25.40843695491108</v>
       </c>
       <c r="H23">
-        <v>8.147443393890649</v>
+        <v>13.26952372490585</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.91395289630028</v>
+        <v>12.07150067030535</v>
       </c>
       <c r="L23">
-        <v>6.60806827398476</v>
+        <v>8.16921974440282</v>
       </c>
       <c r="M23">
-        <v>11.13894005125671</v>
+        <v>14.82332505324619</v>
       </c>
       <c r="N23">
-        <v>12.36094298333978</v>
+        <v>19.87589380634421</v>
       </c>
       <c r="O23">
-        <v>13.71825853625244</v>
+        <v>19.77946361684669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.35239767843735</v>
+        <v>16.11263297652759</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.519258573476379</v>
+        <v>4.862527226051174</v>
       </c>
       <c r="E24">
-        <v>12.34881089892824</v>
+        <v>20.31610902443149</v>
       </c>
       <c r="F24">
-        <v>17.92034300735051</v>
+        <v>22.28341888641606</v>
       </c>
       <c r="G24">
-        <v>21.85775197432426</v>
+        <v>25.31937686035016</v>
       </c>
       <c r="H24">
-        <v>8.132136843738985</v>
+        <v>13.31288295306785</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.05433854252274</v>
+        <v>11.69619428124687</v>
       </c>
       <c r="L24">
-        <v>6.184905567104994</v>
+        <v>8.12368996089382</v>
       </c>
       <c r="M24">
-        <v>10.67271697398975</v>
+        <v>14.76929090016612</v>
       </c>
       <c r="N24">
-        <v>12.66840708879856</v>
+        <v>19.9635917396606</v>
       </c>
       <c r="O24">
-        <v>13.46610706058875</v>
+        <v>19.82258639023991</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.36532700582658</v>
+        <v>15.93676216760382</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.157771922035352</v>
+        <v>4.719180880022554</v>
       </c>
       <c r="E25">
-        <v>12.6412849826607</v>
+        <v>20.43327199128807</v>
       </c>
       <c r="F25">
-        <v>17.10441121760831</v>
+        <v>22.2428241911074</v>
       </c>
       <c r="G25">
-        <v>20.77529134811914</v>
+        <v>25.25223445313591</v>
       </c>
       <c r="H25">
-        <v>8.136610038535505</v>
+        <v>13.36697425931284</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.06695187374842</v>
+        <v>11.27162438794591</v>
       </c>
       <c r="L25">
-        <v>5.774655236995913</v>
+        <v>8.078169599990423</v>
       </c>
       <c r="M25">
-        <v>10.16206302850119</v>
+        <v>14.71823516481356</v>
       </c>
       <c r="N25">
-        <v>13.00966282860123</v>
+        <v>20.06463813069656</v>
       </c>
       <c r="O25">
-        <v>13.23615747569951</v>
+        <v>19.88420893229395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.81542716379291</v>
+        <v>12.60810148824216</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.608468162201127</v>
+        <v>4.872777583294035</v>
       </c>
       <c r="E2">
-        <v>20.52734289458135</v>
+        <v>12.87143730643192</v>
       </c>
       <c r="F2">
-        <v>22.23093670878155</v>
+        <v>16.527946871282</v>
       </c>
       <c r="G2">
-        <v>25.22786576219513</v>
+        <v>20.01807771853531</v>
       </c>
       <c r="H2">
-        <v>13.41310485122486</v>
+        <v>8.156574726468742</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.94344334586449</v>
+        <v>13.29042873251957</v>
       </c>
       <c r="L2">
-        <v>8.047874645982276</v>
+        <v>5.512363972787054</v>
       </c>
       <c r="M2">
-        <v>14.68701805929012</v>
+        <v>9.782061337461874</v>
       </c>
       <c r="N2">
-        <v>20.14463931274576</v>
+        <v>13.26982763925372</v>
       </c>
       <c r="O2">
-        <v>19.94254533248236</v>
+        <v>13.10133758636417</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.73861400343886</v>
+        <v>12.07885915148637</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.530428872322533</v>
+        <v>4.668412791247169</v>
       </c>
       <c r="E3">
-        <v>20.59599441593353</v>
+        <v>13.03658484605835</v>
       </c>
       <c r="F3">
-        <v>22.23415789061444</v>
+        <v>16.15430265747999</v>
       </c>
       <c r="G3">
-        <v>25.22703743072563</v>
+        <v>19.53205732806781</v>
       </c>
       <c r="H3">
-        <v>13.44830304674604</v>
+        <v>8.179819482289467</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.71212393008241</v>
+        <v>12.73483555986024</v>
       </c>
       <c r="L3">
-        <v>8.02941573471257</v>
+        <v>5.331129118615007</v>
       </c>
       <c r="M3">
-        <v>14.66991148258432</v>
+        <v>9.52357009369504</v>
       </c>
       <c r="N3">
-        <v>20.2023779973051</v>
+        <v>13.45199947077485</v>
       </c>
       <c r="O3">
-        <v>19.99014779165025</v>
+        <v>13.03049376788119</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.69422573477628</v>
+        <v>11.74718465812561</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.481106919419823</v>
+        <v>4.53762409862297</v>
       </c>
       <c r="E4">
-        <v>20.64057310338942</v>
+        <v>13.14249503978182</v>
       </c>
       <c r="F4">
-        <v>22.24170720810843</v>
+        <v>15.9338955543247</v>
       </c>
       <c r="G4">
-        <v>25.23426941089593</v>
+        <v>19.24776103286121</v>
       </c>
       <c r="H4">
-        <v>13.47185678207637</v>
+        <v>8.198659162663615</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.56599773511888</v>
+        <v>12.37989967200664</v>
       </c>
       <c r="L4">
-        <v>8.019123767476959</v>
+        <v>5.218542720558425</v>
       </c>
       <c r="M4">
-        <v>14.66142799142747</v>
+        <v>9.364949185019524</v>
       </c>
       <c r="N4">
-        <v>20.23957544135426</v>
+        <v>13.56683771148685</v>
       </c>
       <c r="O4">
-        <v>20.02334745643375</v>
+        <v>12.99674550144872</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67685017611077</v>
+        <v>11.61054350437554</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.460666973944446</v>
+        <v>4.483032671321667</v>
       </c>
       <c r="E5">
-        <v>20.65935080185002</v>
+        <v>13.18678618780311</v>
       </c>
       <c r="F5">
-        <v>22.24618547218956</v>
+        <v>15.84643236579694</v>
       </c>
       <c r="G5">
-        <v>25.23916239248683</v>
+        <v>19.13556029018406</v>
       </c>
       <c r="H5">
-        <v>13.48194354493926</v>
+        <v>8.207452089958018</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.50546880680027</v>
+        <v>12.23191071098323</v>
       </c>
       <c r="L5">
-        <v>8.015194624801723</v>
+        <v>5.172401620642223</v>
       </c>
       <c r="M5">
-        <v>14.65848219439608</v>
+        <v>9.300424079590522</v>
       </c>
       <c r="N5">
-        <v>20.25517386533287</v>
+        <v>13.61439885274088</v>
       </c>
       <c r="O5">
-        <v>20.03787406376721</v>
+        <v>12.98538488102366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.67400846693352</v>
+        <v>11.58777144667222</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.457252728146177</v>
+        <v>4.473890966282871</v>
       </c>
       <c r="E6">
-        <v>20.66250579975698</v>
+        <v>13.19420901742014</v>
       </c>
       <c r="F6">
-        <v>22.24701376181039</v>
+        <v>15.83205381451938</v>
       </c>
       <c r="G6">
-        <v>25.24009234995719</v>
+        <v>19.11715271369874</v>
       </c>
       <c r="H6">
-        <v>13.48364794712746</v>
+        <v>8.208978575701629</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.49536022297135</v>
+        <v>12.20713881751786</v>
       </c>
       <c r="L6">
-        <v>8.014558275911916</v>
+        <v>5.164726221499313</v>
       </c>
       <c r="M6">
-        <v>14.65802402057967</v>
+        <v>9.289719347133468</v>
       </c>
       <c r="N6">
-        <v>20.25779059200924</v>
+        <v>13.62234284655851</v>
       </c>
       <c r="O6">
-        <v>20.04034640278835</v>
+        <v>12.98364110498795</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.69398849559682</v>
+        <v>11.74534757185734</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.480832622251348</v>
+        <v>4.53689304043646</v>
       </c>
       <c r="E7">
-        <v>20.64082386810882</v>
+        <v>13.14308778479685</v>
       </c>
       <c r="F7">
-        <v>22.24176192697159</v>
+        <v>15.93270635040298</v>
       </c>
       <c r="G7">
-        <v>25.23432752235889</v>
+        <v>19.24623294280893</v>
       </c>
       <c r="H7">
-        <v>13.47199083792766</v>
+        <v>8.198773273221596</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.565185328194</v>
+        <v>12.37791723167168</v>
       </c>
       <c r="L7">
-        <v>8.019069701312953</v>
+        <v>5.21792141026337</v>
       </c>
       <c r="M7">
-        <v>14.66138618893934</v>
+        <v>9.364078392197143</v>
       </c>
       <c r="N7">
-        <v>20.23978402334837</v>
+        <v>13.56747602845409</v>
       </c>
       <c r="O7">
-        <v>20.02353933030648</v>
+        <v>12.99658268474852</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.78837532770557</v>
+        <v>12.42713029398714</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.581859304261196</v>
+        <v>4.80343681227394</v>
       </c>
       <c r="E8">
-        <v>20.55051118193479</v>
+        <v>12.92744301883582</v>
       </c>
       <c r="F8">
-        <v>22.23089176738666</v>
+        <v>16.397298909102</v>
       </c>
       <c r="G8">
-        <v>25.22597372107731</v>
+        <v>19.84763141802015</v>
       </c>
       <c r="H8">
-        <v>13.42483822203654</v>
+        <v>8.163621660954817</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.86456257716164</v>
+        <v>13.1017908817655</v>
       </c>
       <c r="L8">
-        <v>8.041295582017698</v>
+        <v>5.450184471138131</v>
       </c>
       <c r="M8">
-        <v>14.68070253820644</v>
+        <v>9.692967318141152</v>
       </c>
       <c r="N8">
-        <v>20.16418602668024</v>
+        <v>13.33202928719727</v>
       </c>
       <c r="O8">
-        <v>19.95813367756529</v>
+        <v>13.07485246986977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99478238763502</v>
+        <v>13.70289160879138</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.768297147498711</v>
+        <v>5.282523845333982</v>
       </c>
       <c r="E9">
-        <v>20.39259714875124</v>
+        <v>12.54045423850163</v>
       </c>
       <c r="F9">
-        <v>22.25371040317478</v>
+        <v>17.37573174167473</v>
       </c>
       <c r="G9">
-        <v>25.27096753071489</v>
+        <v>21.13405087973564</v>
       </c>
       <c r="H9">
-        <v>13.34777476731676</v>
+        <v>8.132421836944271</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.41716057749484</v>
+        <v>14.40741935363614</v>
       </c>
       <c r="L9">
-        <v>8.093011474396834</v>
+        <v>5.892584586462577</v>
       </c>
       <c r="M9">
-        <v>14.73445329292732</v>
+        <v>10.33489156471141</v>
       </c>
       <c r="N9">
-        <v>20.02973399332963</v>
+        <v>12.89336934489332</v>
       </c>
       <c r="O9">
-        <v>19.8614352015176</v>
+        <v>13.30813819979139</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.15842291479923</v>
+        <v>14.59392915166706</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.897497997597998</v>
+        <v>5.606308377823164</v>
       </c>
       <c r="E10">
-        <v>20.28818722383339</v>
+        <v>12.27821922404808</v>
       </c>
       <c r="F10">
-        <v>22.2972325827756</v>
+        <v>18.12998241878771</v>
       </c>
       <c r="G10">
-        <v>25.34128563556391</v>
+        <v>22.13742295746485</v>
       </c>
       <c r="H10">
-        <v>13.30053839218741</v>
+        <v>8.134575288225571</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.79967568671665</v>
+        <v>15.29247514272643</v>
       </c>
       <c r="L10">
-        <v>8.135771765637042</v>
+        <v>6.302375385501353</v>
       </c>
       <c r="M10">
-        <v>14.78339601447744</v>
+        <v>10.79998471028329</v>
       </c>
       <c r="N10">
-        <v>19.93928332312156</v>
+        <v>12.58422881932912</v>
       </c>
       <c r="O10">
-        <v>19.80969186497671</v>
+        <v>13.53116968261343</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.23524306830631</v>
+        <v>14.98778259532095</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.954459333498538</v>
+        <v>5.747233333854703</v>
       </c>
       <c r="E11">
-        <v>20.24319064936543</v>
+        <v>12.16378270352873</v>
       </c>
       <c r="F11">
-        <v>22.32279197865148</v>
+        <v>18.47961147395438</v>
       </c>
       <c r="G11">
-        <v>25.38129947817476</v>
+        <v>22.60502050799645</v>
       </c>
       <c r="H11">
-        <v>13.28108474154479</v>
+        <v>8.141451554011745</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.96813008221014</v>
+        <v>15.67827312127358</v>
       </c>
       <c r="L11">
-        <v>8.15621456805774</v>
+        <v>6.492278698861191</v>
       </c>
       <c r="M11">
-        <v>14.80766080235702</v>
+        <v>11.00927596233558</v>
       </c>
       <c r="N11">
-        <v>19.8999272662915</v>
+        <v>12.44624007686297</v>
       </c>
       <c r="O11">
-        <v>19.79035315476687</v>
+        <v>13.64438224906349</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.26465480452833</v>
+        <v>15.135177416006</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.975758553729015</v>
+        <v>5.799666603933669</v>
       </c>
       <c r="E12">
-        <v>20.22650973133192</v>
+        <v>12.12115430338575</v>
       </c>
       <c r="F12">
-        <v>22.33329331650925</v>
+        <v>18.61285005288297</v>
       </c>
       <c r="G12">
-        <v>25.39759748996058</v>
+        <v>22.78357149105918</v>
       </c>
       <c r="H12">
-        <v>13.27401054355173</v>
+        <v>8.144940750769775</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.03108571509962</v>
+        <v>15.82190077772423</v>
       </c>
       <c r="L12">
-        <v>8.164094163776937</v>
+        <v>6.562861503444291</v>
       </c>
       <c r="M12">
-        <v>14.81713197935756</v>
+        <v>11.08813657688569</v>
       </c>
       <c r="N12">
-        <v>19.88528037647432</v>
+        <v>12.3943498253987</v>
       </c>
       <c r="O12">
-        <v>19.78363446450011</v>
+        <v>13.68897999897698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.258306489225</v>
+        <v>15.10351245808358</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.971183584135576</v>
+        <v>5.788415837186432</v>
       </c>
       <c r="E13">
-        <v>20.2300863484498</v>
+        <v>12.13030353935466</v>
       </c>
       <c r="F13">
-        <v>22.33099518551005</v>
+        <v>18.58411875770465</v>
       </c>
       <c r="G13">
-        <v>25.39403662098952</v>
+        <v>22.74505329250082</v>
       </c>
       <c r="H13">
-        <v>13.2755210919329</v>
+        <v>8.144149318476719</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.01756474315606</v>
+        <v>15.7910782960441</v>
       </c>
       <c r="L13">
-        <v>8.162391066354846</v>
+        <v>6.547719381822262</v>
       </c>
       <c r="M13">
-        <v>14.81507970488838</v>
+        <v>11.07117099996571</v>
       </c>
       <c r="N13">
-        <v>19.88842345983922</v>
+        <v>12.40550944294388</v>
       </c>
       <c r="O13">
-        <v>19.7850545642271</v>
+        <v>13.67929775291346</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.23765646331318</v>
+        <v>14.99994440433714</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.956217116217954</v>
+        <v>5.751565810873142</v>
       </c>
       <c r="E14">
-        <v>20.24181112593924</v>
+        <v>12.16026143450282</v>
       </c>
       <c r="F14">
-        <v>22.32363948176456</v>
+        <v>18.49055674755131</v>
       </c>
       <c r="G14">
-        <v>25.38261741937048</v>
+        <v>22.61968097642545</v>
       </c>
       <c r="H14">
-        <v>13.28049688179175</v>
+        <v>8.141720654730108</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.97332639754741</v>
+        <v>15.69013910451847</v>
       </c>
       <c r="L14">
-        <v>8.156860078694308</v>
+        <v>6.498112241173293</v>
       </c>
       <c r="M14">
-        <v>14.80843436725993</v>
+        <v>11.01577210810385</v>
       </c>
       <c r="N14">
-        <v>19.89871712536524</v>
+        <v>12.44196385542882</v>
       </c>
       <c r="O14">
-        <v>19.78978828725752</v>
+        <v>13.64801653670702</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.22504899174537</v>
+        <v>14.93627561988759</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.947014166230991</v>
+        <v>5.728872305710208</v>
       </c>
       <c r="E15">
-        <v>20.24903951790016</v>
+        <v>12.17870374429646</v>
       </c>
       <c r="F15">
-        <v>22.3192408313631</v>
+        <v>18.43335420002952</v>
       </c>
       <c r="G15">
-        <v>25.37577174563057</v>
+        <v>22.54307631009033</v>
       </c>
       <c r="H15">
-        <v>13.28358278360174</v>
+        <v>8.1403494334768</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.94611945662725</v>
+        <v>15.62798860767113</v>
       </c>
       <c r="L15">
-        <v>8.153490080627272</v>
+        <v>6.467553253645604</v>
       </c>
       <c r="M15">
-        <v>14.80440055874969</v>
+        <v>10.98178562498369</v>
       </c>
       <c r="N15">
-        <v>19.90505565154118</v>
+        <v>12.46434001569449</v>
       </c>
       <c r="O15">
-        <v>19.79276656123776</v>
+        <v>13.62908174597294</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.15344867132837</v>
+        <v>14.5679500760022</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.893738082762678</v>
+        <v>5.596969007766139</v>
       </c>
       <c r="E16">
-        <v>20.29117806037413</v>
+        <v>12.28579627733125</v>
       </c>
       <c r="F16">
-        <v>22.29567766031976</v>
+        <v>18.10725616766794</v>
       </c>
       <c r="G16">
-        <v>25.33883145027952</v>
+        <v>22.10707822713873</v>
       </c>
       <c r="H16">
-        <v>13.3018506660999</v>
+        <v>8.134247753706331</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.78855191977279</v>
+        <v>15.2669196353457</v>
       </c>
       <c r="L16">
-        <v>8.134455369827776</v>
+        <v>6.289778832987161</v>
       </c>
       <c r="M16">
-        <v>14.78185008354636</v>
+        <v>10.78625538299796</v>
       </c>
       <c r="N16">
-        <v>19.94189127035013</v>
+        <v>12.59329843874659</v>
       </c>
       <c r="O16">
-        <v>19.81104025420163</v>
+        <v>13.524010713606</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.11011914473951</v>
+        <v>14.33897792425293</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.860583232538133</v>
+        <v>5.514407229329973</v>
       </c>
       <c r="E17">
-        <v>20.31766815382219</v>
+        <v>12.35274294460172</v>
       </c>
       <c r="F17">
-        <v>22.28269404887292</v>
+        <v>17.90880482553503</v>
       </c>
       <c r="G17">
-        <v>25.31821987191208</v>
+        <v>21.8423757704928</v>
       </c>
       <c r="H17">
-        <v>13.31357843864106</v>
+        <v>8.132041366727513</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.69044057095779</v>
+        <v>15.04107098983856</v>
       </c>
       <c r="L17">
-        <v>8.123029094493086</v>
+        <v>6.178354741397219</v>
       </c>
       <c r="M17">
-        <v>14.76852496722384</v>
+        <v>10.66567089349374</v>
       </c>
       <c r="N17">
-        <v>19.96494653476234</v>
+        <v>12.67307497889682</v>
       </c>
       <c r="O17">
-        <v>19.82332665030938</v>
+        <v>13.4625909301067</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08542235799209</v>
+        <v>14.20620292634027</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.841343378127913</v>
+        <v>5.466321410944739</v>
       </c>
       <c r="E18">
-        <v>20.33313993928507</v>
+        <v>12.3917053581073</v>
       </c>
       <c r="F18">
-        <v>22.27576887505314</v>
+        <v>17.7952796208391</v>
       </c>
       <c r="G18">
-        <v>25.30712067277008</v>
+        <v>21.69118315473282</v>
       </c>
       <c r="H18">
-        <v>13.32051543696397</v>
+        <v>8.131325081852692</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.6334887427173</v>
+        <v>14.90958791542838</v>
       </c>
       <c r="L18">
-        <v>8.116550532670919</v>
+        <v>6.113398662697897</v>
       </c>
       <c r="M18">
-        <v>14.76104932704552</v>
+        <v>10.59610258577407</v>
       </c>
       <c r="N18">
-        <v>19.9783758973934</v>
+        <v>12.71920993638785</v>
       </c>
       <c r="O18">
-        <v>19.8307887241352</v>
+        <v>13.42836840539227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.07709974727264</v>
+        <v>14.16106600387469</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.834800204540621</v>
+        <v>5.449938150356376</v>
       </c>
       <c r="E19">
-        <v>20.33841888408605</v>
+        <v>12.40497553840171</v>
       </c>
       <c r="F19">
-        <v>22.27351749567746</v>
+        <v>17.75695121845702</v>
       </c>
       <c r="G19">
-        <v>25.30349275547445</v>
+        <v>21.64017738125592</v>
       </c>
       <c r="H19">
-        <v>13.32289707646883</v>
+        <v>8.131176363708992</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.61411752459931</v>
+        <v>14.86480009399671</v>
       </c>
       <c r="L19">
-        <v>8.114373190415341</v>
+        <v>6.091256758189556</v>
       </c>
       <c r="M19">
-        <v>14.75855074785119</v>
+        <v>10.57251375935546</v>
       </c>
       <c r="N19">
-        <v>19.98295183597097</v>
+        <v>12.73487380699915</v>
       </c>
       <c r="O19">
-        <v>19.83338312078961</v>
+        <v>13.41696976554818</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11470848535659</v>
+        <v>14.36346455288876</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.864130298987187</v>
+        <v>5.523258140848003</v>
       </c>
       <c r="E20">
-        <v>20.31482388545285</v>
+        <v>12.34556906210094</v>
       </c>
       <c r="F20">
-        <v>22.28402005320432</v>
+        <v>17.92986698210129</v>
       </c>
       <c r="G20">
-        <v>25.32033581886202</v>
+        <v>21.87044529368477</v>
       </c>
       <c r="H20">
-        <v>13.31231017879234</v>
+        <v>8.132218760689467</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.70093885784482</v>
+        <v>15.06527695651308</v>
       </c>
       <c r="L20">
-        <v>8.124235790574161</v>
+        <v>6.190305886541974</v>
       </c>
       <c r="M20">
-        <v>14.76992396344655</v>
+        <v>10.67852968093111</v>
       </c>
       <c r="N20">
-        <v>19.96247482240301</v>
+        <v>12.66455691587691</v>
       </c>
       <c r="O20">
-        <v>19.82197782946815</v>
+        <v>13.4690145807692</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.24371331409371</v>
+        <v>15.0304130093395</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.960620557721969</v>
+        <v>5.762414964683961</v>
       </c>
       <c r="E21">
-        <v>20.23835755961666</v>
+        <v>12.15144283667114</v>
       </c>
       <c r="F21">
-        <v>22.32577775777756</v>
+        <v>18.51801606398454</v>
       </c>
       <c r="G21">
-        <v>25.38594049890498</v>
+        <v>22.65646658002892</v>
       </c>
       <c r="H21">
-        <v>13.27902743457735</v>
+        <v>8.142409686404704</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.98634318854244</v>
+        <v>15.71985463462122</v>
       </c>
       <c r="L21">
-        <v>8.158480942868763</v>
+        <v>6.512719153314961</v>
       </c>
       <c r="M21">
-        <v>14.81037863497042</v>
+        <v>11.03205527086444</v>
       </c>
       <c r="N21">
-        <v>19.89568667621123</v>
+        <v>12.43124659253032</v>
       </c>
       <c r="O21">
-        <v>19.78838146965519</v>
+        <v>13.65715746105363</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.32989016902734</v>
+        <v>15.45607491410202</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.022099822845825</v>
+        <v>5.913280266750077</v>
       </c>
       <c r="E22">
-        <v>20.19047034812551</v>
+        <v>12.02869134252987</v>
       </c>
       <c r="F22">
-        <v>22.35785991652175</v>
+        <v>18.9072719605155</v>
       </c>
       <c r="G22">
-        <v>25.43548953600788</v>
+        <v>23.17876460452277</v>
       </c>
       <c r="H22">
-        <v>13.2589799747754</v>
+        <v>8.15424774654781</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.16799329278732</v>
+        <v>16.13327233102542</v>
       </c>
       <c r="L22">
-        <v>8.181666508785773</v>
+        <v>6.715686467314005</v>
       </c>
       <c r="M22">
-        <v>14.83846296245853</v>
+        <v>11.26078582260586</v>
       </c>
       <c r="N22">
-        <v>19.85353074210791</v>
+        <v>12.2808729931733</v>
       </c>
       <c r="O22">
-        <v>19.76994768470672</v>
+        <v>13.79019749976249</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.28373224114937</v>
+        <v>15.22985478359686</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.989435183516601</v>
+        <v>5.833262752252555</v>
       </c>
       <c r="E23">
-        <v>20.21583799588141</v>
+        <v>12.09382600116733</v>
       </c>
       <c r="F23">
-        <v>22.34030085304559</v>
+        <v>18.69910323441831</v>
       </c>
       <c r="G23">
-        <v>25.40843695491108</v>
+        <v>22.89925670561996</v>
       </c>
       <c r="H23">
-        <v>13.26952372490585</v>
+        <v>8.147443393890649</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.07150067030535</v>
+        <v>15.91395289630032</v>
       </c>
       <c r="L23">
-        <v>8.16921974440282</v>
+        <v>6.608068273984808</v>
       </c>
       <c r="M23">
-        <v>14.82332505324619</v>
+        <v>11.1389400512567</v>
       </c>
       <c r="N23">
-        <v>19.87589380634421</v>
+        <v>12.36094298333975</v>
       </c>
       <c r="O23">
-        <v>19.77946361684669</v>
+        <v>13.71825853625235</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.11263297652759</v>
+        <v>14.35239767843738</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.862527226051174</v>
+        <v>5.519258573476293</v>
       </c>
       <c r="E24">
-        <v>20.31610902443149</v>
+        <v>12.3488108989283</v>
       </c>
       <c r="F24">
-        <v>22.28341888641606</v>
+        <v>17.92034300735047</v>
       </c>
       <c r="G24">
-        <v>25.31937686035016</v>
+        <v>21.85775197432417</v>
       </c>
       <c r="H24">
-        <v>13.31288295306785</v>
+        <v>8.132136843738937</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.69619428124687</v>
+        <v>15.05433854252279</v>
       </c>
       <c r="L24">
-        <v>8.12368996089382</v>
+        <v>6.18490556710502</v>
       </c>
       <c r="M24">
-        <v>14.76929090016612</v>
+        <v>10.67271697398976</v>
       </c>
       <c r="N24">
-        <v>19.9635917396606</v>
+        <v>12.66840708879852</v>
       </c>
       <c r="O24">
-        <v>19.82258639023991</v>
+        <v>13.46610706058869</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.93676216760382</v>
+        <v>13.36532700582652</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.719180880022554</v>
+        <v>5.157771922035352</v>
       </c>
       <c r="E25">
-        <v>20.43327199128807</v>
+        <v>12.64128498266083</v>
       </c>
       <c r="F25">
-        <v>22.2428241911074</v>
+        <v>17.1044112176082</v>
       </c>
       <c r="G25">
-        <v>25.25223445313591</v>
+        <v>20.775291348119</v>
       </c>
       <c r="H25">
-        <v>13.36697425931284</v>
+        <v>8.13661003853546</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.27162438794591</v>
+        <v>14.06695187374854</v>
       </c>
       <c r="L25">
-        <v>8.078169599990423</v>
+        <v>5.774655236995928</v>
       </c>
       <c r="M25">
-        <v>14.71823516481356</v>
+        <v>10.16206302850118</v>
       </c>
       <c r="N25">
-        <v>20.06463813069656</v>
+        <v>13.00966282860123</v>
       </c>
       <c r="O25">
-        <v>19.88420893229395</v>
+        <v>13.23615747569941</v>
       </c>
     </row>
   </sheetData>
